--- a/scene_cat_exp_2023.2.2_english/input_files/91_scenecat_memory_living_rooms_1.xlsx
+++ b/scene_cat_exp_2023.2.2_english/input_files/91_scenecat_memory_living_rooms_1.xlsx
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>41</v>
+        <v>203</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -500,50 +500,55 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_zxvl3.png</t>
+          <t>stimuli/img_j856a.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>68.78260869565217</v>
+        <v>38.225</v>
       </c>
       <c r="N2">
-        <v>47.56521739130435</v>
+        <v>25.875</v>
       </c>
       <c r="O2">
-        <v>58.17391304347827</v>
+        <v>32.05</v>
       </c>
       <c r="P2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Q2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -565,67 +570,67 @@
         <v>2</v>
       </c>
       <c r="F3">
+        <v>204</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>stimuli/img_j4ttn.png</t>
+        </is>
+      </c>
+      <c r="M3">
+        <v>12.61904761904762</v>
+      </c>
+      <c r="N3">
+        <v>11.42857142857143</v>
+      </c>
+      <c r="O3">
+        <v>12.02380952380952</v>
+      </c>
+      <c r="P3">
         <v>42</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>old</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>j</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>stimuli/img_6a0hu.png</t>
-        </is>
-      </c>
-      <c r="M3">
-        <v>61.275</v>
-      </c>
-      <c r="N3">
-        <v>42.025</v>
-      </c>
-      <c r="O3">
-        <v>51.65</v>
-      </c>
-      <c r="P3">
-        <v>40</v>
-      </c>
       <c r="Q3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +652,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>43</v>
+        <v>205</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -671,38 +676,38 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_5jy9c.png</t>
+          <t>stimuli/img_nb8p4.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>87.37209302325581</v>
+        <v>16.36170212765957</v>
       </c>
       <c r="N4">
-        <v>79.18604651162791</v>
+        <v>12.70212765957447</v>
       </c>
       <c r="O4">
-        <v>83.27906976744185</v>
+        <v>14.53191489361702</v>
       </c>
       <c r="P4">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -724,62 +729,67 @@
         <v>4</v>
       </c>
       <c r="F5">
+        <v>206</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>stimuli/img_tn8ys.png</t>
+        </is>
+      </c>
+      <c r="M5">
+        <v>86.70454545454545</v>
+      </c>
+      <c r="N5">
+        <v>72.40909090909091</v>
+      </c>
+      <c r="O5">
+        <v>79.55681818181819</v>
+      </c>
+      <c r="P5">
         <v>44</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>stimuli/img_jkm86.png</t>
-        </is>
-      </c>
-      <c r="M5">
-        <v>58.32558139534883</v>
-      </c>
-      <c r="N5">
-        <v>38.65116279069768</v>
-      </c>
-      <c r="O5">
-        <v>48.48837209302326</v>
-      </c>
-      <c r="P5">
-        <v>43</v>
-      </c>
       <c r="Q5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="T5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="U5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="V5">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -801,67 +811,62 @@
         <v>5</v>
       </c>
       <c r="F6">
+        <v>207</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>stimuli/img_o30wb.png</t>
+        </is>
+      </c>
+      <c r="M6">
+        <v>81.06666666666666</v>
+      </c>
+      <c r="N6">
+        <v>65.37777777777778</v>
+      </c>
+      <c r="O6">
+        <v>73.22222222222223</v>
+      </c>
+      <c r="P6">
         <v>45</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>old</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>j</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>stimuli/img_x4bln.png</t>
-        </is>
-      </c>
-      <c r="M6">
-        <v>76.34042553191489</v>
-      </c>
-      <c r="N6">
-        <v>59.51063829787234</v>
-      </c>
-      <c r="O6">
-        <v>67.92553191489361</v>
-      </c>
-      <c r="P6">
-        <v>47</v>
-      </c>
       <c r="Q6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -883,7 +888,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -907,38 +912,38 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_xzyzy.png</t>
+          <t>stimuli/img_5jy9c.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>85.37209302325581</v>
+        <v>87.37209302325581</v>
       </c>
       <c r="N7">
-        <v>68.90697674418605</v>
+        <v>79.18604651162791</v>
       </c>
       <c r="O7">
-        <v>77.13953488372093</v>
+        <v>83.27906976744185</v>
       </c>
       <c r="P7">
         <v>43</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U7">
         <v>9</v>
       </c>
       <c r="V7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -960,7 +965,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>47</v>
+        <v>209</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -984,38 +989,38 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_c0vzo.png</t>
+          <t>stimuli/img_jpldg.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>21.51162790697675</v>
+        <v>79.54545454545455</v>
       </c>
       <c r="N8">
-        <v>8.232558139534884</v>
+        <v>57.75</v>
       </c>
       <c r="O8">
-        <v>14.87209302325581</v>
+        <v>68.64772727272728</v>
       </c>
       <c r="P8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1037,7 +1042,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>48</v>
+        <v>210</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1049,50 +1054,55 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_nb8p4.png</t>
+          <t>stimuli/img_z4jxm.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>16.36170212765957</v>
+        <v>88.30952380952381</v>
       </c>
       <c r="N9">
-        <v>12.70212765957447</v>
+        <v>72.64285714285714</v>
       </c>
       <c r="O9">
-        <v>14.53191489361702</v>
+        <v>80.47619047619048</v>
       </c>
       <c r="P9">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V9">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1114,7 +1124,7 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>49</v>
+        <v>211</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1126,55 +1136,50 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/img_hmmra.png</t>
+          <t>stimuli/img_165pk.png</t>
         </is>
       </c>
       <c r="M10">
-        <v>54.65853658536585</v>
+        <v>85.73333333333333</v>
       </c>
       <c r="N10">
-        <v>34.24390243902439</v>
+        <v>69.22222222222223</v>
       </c>
       <c r="O10">
-        <v>44.45121951219512</v>
+        <v>77.47777777777779</v>
       </c>
       <c r="P10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R10">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S10">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="T10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="U10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="V10">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1196,7 +1201,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>50</v>
+        <v>212</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1208,55 +1213,50 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_xr3up.png</t>
+          <t>stimuli/img_rych7.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>76.24444444444444</v>
+        <v>30.4468085106383</v>
       </c>
       <c r="N11">
-        <v>55.88888888888889</v>
+        <v>23.4468085106383</v>
       </c>
       <c r="O11">
-        <v>66.06666666666666</v>
+        <v>26.9468085106383</v>
       </c>
       <c r="P11">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1278,7 +1278,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>51</v>
+        <v>213</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1307,35 +1307,35 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_q9lab.png</t>
+          <t>stimuli/img_pjfx6.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>53.97560975609756</v>
+        <v>32.23404255319149</v>
       </c>
       <c r="N12">
-        <v>32.90243902439025</v>
+        <v>26.59574468085106</v>
       </c>
       <c r="O12">
-        <v>43.4390243902439</v>
+        <v>29.41489361702127</v>
       </c>
       <c r="P12">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V12">
         <v>3</v>
@@ -1360,7 +1360,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>52</v>
+        <v>214</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1372,55 +1372,50 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_j856a.png</t>
+          <t>stimuli/img_pbsj1.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>38.225</v>
+        <v>73.88636363636364</v>
       </c>
       <c r="N13">
-        <v>25.875</v>
+        <v>51.52272727272727</v>
       </c>
       <c r="O13">
-        <v>32.05</v>
+        <v>62.70454545454545</v>
       </c>
       <c r="P13">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V13">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1442,7 +1437,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>53</v>
+        <v>215</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1466,38 +1461,38 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_3sw8t.png</t>
+          <t>stimuli/img_g13d5.png</t>
         </is>
       </c>
       <c r="M14">
-        <v>67.48888888888889</v>
+        <v>73</v>
       </c>
       <c r="N14">
-        <v>48.51111111111111</v>
+        <v>51.51111111111111</v>
       </c>
       <c r="O14">
-        <v>58</v>
+        <v>62.25555555555556</v>
       </c>
       <c r="P14">
         <v>45</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1519,7 +1514,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>54</v>
+        <v>216</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1531,50 +1526,55 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_jpldg.png</t>
+          <t>stimuli/img_6a0hu.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>79.54545454545455</v>
+        <v>61.275</v>
       </c>
       <c r="N15">
-        <v>57.75</v>
+        <v>42.025</v>
       </c>
       <c r="O15">
-        <v>68.64772727272728</v>
+        <v>51.65</v>
       </c>
       <c r="P15">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="V15">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1596,7 +1596,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>55</v>
+        <v>217</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1625,38 +1625,38 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_5jp4f.png</t>
+          <t>stimuli/img_gka64.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>84.85714285714286</v>
+        <v>19.23809523809524</v>
       </c>
       <c r="N16">
-        <v>67.83333333333333</v>
+        <v>20.02380952380953</v>
       </c>
       <c r="O16">
-        <v>76.3452380952381</v>
+        <v>19.63095238095238</v>
       </c>
       <c r="P16">
         <v>42</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R16">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S16">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="T16">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U16">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V16">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1678,7 +1678,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>56</v>
+        <v>218</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1690,37 +1690,32 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_pjfx6.png</t>
+          <t>stimuli/img_8dmpq.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>32.23404255319149</v>
+        <v>30.65909090909091</v>
       </c>
       <c r="N17">
-        <v>26.59574468085106</v>
+        <v>24.11363636363636</v>
       </c>
       <c r="O17">
-        <v>29.41489361702127</v>
+        <v>27.38636363636364</v>
       </c>
       <c r="P17">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -1738,7 +1733,7 @@
         <v>2</v>
       </c>
       <c r="V17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1760,7 +1755,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>57</v>
+        <v>219</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1784,38 +1779,38 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/img_8dmpq.png</t>
+          <t>stimuli/img_wgddx.png</t>
         </is>
       </c>
       <c r="M18">
-        <v>30.65909090909091</v>
+        <v>45.6304347826087</v>
       </c>
       <c r="N18">
-        <v>24.11363636363636</v>
+        <v>34.30434782608695</v>
       </c>
       <c r="O18">
-        <v>27.38636363636364</v>
+        <v>39.96739130434783</v>
       </c>
       <c r="P18">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1837,7 +1832,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>58</v>
+        <v>220</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1849,50 +1844,55 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_i6wsx.png</t>
+          <t>stimuli/img_vgaye.png</t>
         </is>
       </c>
       <c r="M19">
-        <v>79.07142857142857</v>
+        <v>80.33333333333333</v>
       </c>
       <c r="N19">
-        <v>58</v>
+        <v>64.57777777777778</v>
       </c>
       <c r="O19">
-        <v>68.53571428571428</v>
+        <v>72.45555555555555</v>
       </c>
       <c r="P19">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U19">
         <v>7</v>
       </c>
       <c r="V19">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -1914,21 +1914,16 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>59</v>
+        <v>221</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>catch</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1938,38 +1933,8 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/img_dg5h7.png</t>
-        </is>
-      </c>
-      <c r="M20">
-        <v>88.72093023255815</v>
-      </c>
-      <c r="N20">
-        <v>76.06976744186046</v>
-      </c>
-      <c r="O20">
-        <v>82.3953488372093</v>
-      </c>
-      <c r="P20">
-        <v>43</v>
-      </c>
-      <c r="Q20">
-        <v>10</v>
-      </c>
-      <c r="R20">
-        <v>10</v>
-      </c>
-      <c r="S20">
-        <v>10</v>
-      </c>
-      <c r="T20">
-        <v>10</v>
-      </c>
-      <c r="U20">
-        <v>10</v>
-      </c>
-      <c r="V20">
-        <v>10</v>
+          <t>stimuli/catch_28.jpg</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1991,16 +1956,21 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>60</v>
+        <v>222</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>catch</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2010,8 +1980,38 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/catch_10.jpg</t>
-        </is>
+          <t>stimuli/img_3sw8t.png</t>
+        </is>
+      </c>
+      <c r="M21">
+        <v>67.48888888888889</v>
+      </c>
+      <c r="N21">
+        <v>48.51111111111111</v>
+      </c>
+      <c r="O21">
+        <v>58</v>
+      </c>
+      <c r="P21">
+        <v>45</v>
+      </c>
+      <c r="Q21">
+        <v>5</v>
+      </c>
+      <c r="R21">
+        <v>5</v>
+      </c>
+      <c r="S21">
+        <v>5</v>
+      </c>
+      <c r="T21">
+        <v>5</v>
+      </c>
+      <c r="U21">
+        <v>5</v>
+      </c>
+      <c r="V21">
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -2033,7 +2033,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>61</v>
+        <v>223</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -2062,38 +2062,38 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/img_16kib.png</t>
+          <t>stimuli/img_ra2nm.png</t>
         </is>
       </c>
       <c r="M22">
-        <v>80.97727272727273</v>
+        <v>70.75</v>
       </c>
       <c r="N22">
-        <v>61.11363636363637</v>
+        <v>50.375</v>
       </c>
       <c r="O22">
-        <v>71.04545454545455</v>
+        <v>60.5625</v>
       </c>
       <c r="P22">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V22">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -2115,7 +2115,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>62</v>
+        <v>224</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2127,50 +2127,55 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/img_wgddx.png</t>
+          <t>stimuli/img_5jp4f.png</t>
         </is>
       </c>
       <c r="M23">
-        <v>45.6304347826087</v>
+        <v>84.85714285714286</v>
       </c>
       <c r="N23">
-        <v>34.30434782608695</v>
+        <v>67.83333333333333</v>
       </c>
       <c r="O23">
-        <v>39.96739130434783</v>
+        <v>76.3452380952381</v>
       </c>
       <c r="P23">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Q23">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R23">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S23">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="T23">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="U23">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V23">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -2192,7 +2197,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>63</v>
+        <v>225</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2221,38 +2226,38 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_b21d7.png</t>
+          <t>stimuli/img_16kib.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>27.75555555555556</v>
+        <v>80.97727272727273</v>
       </c>
       <c r="N24">
-        <v>13.86666666666667</v>
+        <v>61.11363636363637</v>
       </c>
       <c r="O24">
-        <v>20.81111111111111</v>
+        <v>71.04545454545455</v>
       </c>
       <c r="P24">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T24">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="V24">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -2274,7 +2279,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>64</v>
+        <v>226</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2351,7 +2356,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>65</v>
+        <v>227</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2363,55 +2368,50 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_j4ttn.png</t>
+          <t>stimuli/img_i6wsx.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>12.61904761904762</v>
+        <v>79.07142857142857</v>
       </c>
       <c r="N26">
-        <v>11.42857142857143</v>
+        <v>58</v>
       </c>
       <c r="O26">
-        <v>12.02380952380952</v>
+        <v>68.53571428571428</v>
       </c>
       <c r="P26">
         <v>42</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R26">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S26">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T26">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="U26">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V26">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -2433,7 +2433,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>66</v>
+        <v>228</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2462,20 +2462,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_gka64.png</t>
+          <t>stimuli/img_b21d7.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>19.23809523809524</v>
+        <v>27.75555555555556</v>
       </c>
       <c r="N27">
-        <v>20.02380952380953</v>
+        <v>13.86666666666667</v>
       </c>
       <c r="O27">
-        <v>19.63095238095238</v>
+        <v>20.81111111111111</v>
       </c>
       <c r="P27">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -2487,13 +2487,13 @@
         <v>1</v>
       </c>
       <c r="T27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -2515,7 +2515,7 @@
         <v>27</v>
       </c>
       <c r="F28">
-        <v>67</v>
+        <v>229</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2527,34 +2527,29 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>stimuli/img_vgh2g.png</t>
+          <t>stimuli/img_dg5h7.png</t>
         </is>
       </c>
       <c r="M28">
-        <v>93.81395348837209</v>
+        <v>88.72093023255815</v>
       </c>
       <c r="N28">
-        <v>78.27906976744185</v>
+        <v>76.06976744186046</v>
       </c>
       <c r="O28">
-        <v>86.04651162790697</v>
+        <v>82.3953488372093</v>
       </c>
       <c r="P28">
         <v>43</v>
@@ -2597,7 +2592,7 @@
         <v>28</v>
       </c>
       <c r="F29">
-        <v>68</v>
+        <v>230</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2609,52 +2604,47 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>stimuli/img_c89x3.png</t>
+          <t>stimuli/img_zxvl3.png</t>
         </is>
       </c>
       <c r="M29">
-        <v>72.8695652173913</v>
+        <v>68.78260869565217</v>
       </c>
       <c r="N29">
-        <v>49.65217391304348</v>
+        <v>47.56521739130435</v>
       </c>
       <c r="O29">
-        <v>61.26086956521739</v>
+        <v>58.17391304347827</v>
       </c>
       <c r="P29">
         <v>46</v>
       </c>
       <c r="Q29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V29">
         <v>5</v>
@@ -2679,7 +2669,7 @@
         <v>29</v>
       </c>
       <c r="F30">
-        <v>69</v>
+        <v>231</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2703,20 +2693,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>stimuli/img_165pk.png</t>
+          <t>stimuli/img_xzyzy.png</t>
         </is>
       </c>
       <c r="M30">
-        <v>85.73333333333333</v>
+        <v>85.37209302325581</v>
       </c>
       <c r="N30">
-        <v>69.22222222222223</v>
+        <v>68.90697674418605</v>
       </c>
       <c r="O30">
-        <v>77.47777777777779</v>
+        <v>77.13953488372093</v>
       </c>
       <c r="P30">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q30">
         <v>9</v>
@@ -2756,7 +2746,7 @@
         <v>30</v>
       </c>
       <c r="F31">
-        <v>70</v>
+        <v>232</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2768,50 +2758,55 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>stimuli/img_g13d5.png</t>
+          <t>stimuli/img_wbws6.png</t>
         </is>
       </c>
       <c r="M31">
-        <v>73</v>
+        <v>57.97777777777777</v>
       </c>
       <c r="N31">
-        <v>51.51111111111111</v>
+        <v>42.53333333333333</v>
       </c>
       <c r="O31">
-        <v>62.25555555555556</v>
+        <v>50.25555555555555</v>
       </c>
       <c r="P31">
         <v>45</v>
       </c>
       <c r="Q31">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R31">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S31">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T31">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U31">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V31">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -2833,7 +2828,7 @@
         <v>31</v>
       </c>
       <c r="F32">
-        <v>71</v>
+        <v>233</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2845,55 +2840,50 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>stimuli/img_tn8ys.png</t>
+          <t>stimuli/img_jkm86.png</t>
         </is>
       </c>
       <c r="M32">
-        <v>86.70454545454545</v>
+        <v>58.32558139534883</v>
       </c>
       <c r="N32">
-        <v>72.40909090909091</v>
+        <v>38.65116279069768</v>
       </c>
       <c r="O32">
-        <v>79.55681818181819</v>
+        <v>48.48837209302326</v>
       </c>
       <c r="P32">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R32">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S32">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="T32">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="U32">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="V32">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -2915,7 +2905,7 @@
         <v>32</v>
       </c>
       <c r="F33">
-        <v>72</v>
+        <v>234</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2944,38 +2934,38 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>stimuli/img_vgaye.png</t>
+          <t>stimuli/img_q9lab.png</t>
         </is>
       </c>
       <c r="M33">
-        <v>80.33333333333333</v>
+        <v>53.97560975609756</v>
       </c>
       <c r="N33">
-        <v>64.57777777777778</v>
+        <v>32.90243902439025</v>
       </c>
       <c r="O33">
-        <v>72.45555555555555</v>
+        <v>43.4390243902439</v>
       </c>
       <c r="P33">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Q33">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R33">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S33">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T33">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="U33">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="V33">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -2997,7 +2987,7 @@
         <v>33</v>
       </c>
       <c r="F34">
-        <v>73</v>
+        <v>235</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -3021,38 +3011,38 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>stimuli/img_rych7.png</t>
+          <t>stimuli/img_9bkl9.png</t>
         </is>
       </c>
       <c r="M34">
-        <v>30.4468085106383</v>
+        <v>46.62162162162162</v>
       </c>
       <c r="N34">
-        <v>23.4468085106383</v>
+        <v>34.27027027027027</v>
       </c>
       <c r="O34">
-        <v>26.9468085106383</v>
+        <v>40.44594594594595</v>
       </c>
       <c r="P34">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="Q34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V34">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -3074,7 +3064,7 @@
         <v>34</v>
       </c>
       <c r="F35">
-        <v>74</v>
+        <v>236</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -3103,35 +3093,35 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>stimuli/img_wbws6.png</t>
+          <t>stimuli/img_c89x3.png</t>
         </is>
       </c>
       <c r="M35">
-        <v>57.97777777777777</v>
+        <v>72.8695652173913</v>
       </c>
       <c r="N35">
-        <v>42.53333333333333</v>
+        <v>49.65217391304348</v>
       </c>
       <c r="O35">
-        <v>50.25555555555555</v>
+        <v>61.26086956521739</v>
       </c>
       <c r="P35">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V35">
         <v>5</v>
@@ -3156,7 +3146,7 @@
         <v>35</v>
       </c>
       <c r="F36">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -3168,50 +3158,55 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>stimuli/img_pbsj1.png</t>
+          <t>stimuli/img_vgh2g.png</t>
         </is>
       </c>
       <c r="M36">
-        <v>73.88636363636364</v>
+        <v>93.81395348837209</v>
       </c>
       <c r="N36">
-        <v>51.52272727272727</v>
+        <v>78.27906976744185</v>
       </c>
       <c r="O36">
-        <v>62.70454545454545</v>
+        <v>86.04651162790697</v>
       </c>
       <c r="P36">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q36">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R36">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S36">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T36">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="U36">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="V36">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -3233,7 +3228,7 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -3310,7 +3305,7 @@
         <v>37</v>
       </c>
       <c r="F38">
-        <v>77</v>
+        <v>239</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -3322,55 +3317,50 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>stimuli/img_z4jxm.png</t>
+          <t>stimuli/img_c0vzo.png</t>
         </is>
       </c>
       <c r="M38">
-        <v>88.30952380952381</v>
+        <v>21.51162790697675</v>
       </c>
       <c r="N38">
-        <v>72.64285714285714</v>
+        <v>8.232558139534884</v>
       </c>
       <c r="O38">
-        <v>80.47619047619048</v>
+        <v>14.87209302325581</v>
       </c>
       <c r="P38">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q38">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R38">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S38">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T38">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U38">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="V38">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -3392,7 +3382,7 @@
         <v>38</v>
       </c>
       <c r="F39">
-        <v>78</v>
+        <v>240</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -3404,50 +3394,55 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>stimuli/img_o30wb.png</t>
+          <t>stimuli/img_xr3up.png</t>
         </is>
       </c>
       <c r="M39">
-        <v>81.06666666666666</v>
+        <v>76.24444444444444</v>
       </c>
       <c r="N39">
-        <v>65.37777777777778</v>
+        <v>55.88888888888889</v>
       </c>
       <c r="O39">
-        <v>73.22222222222223</v>
+        <v>66.06666666666666</v>
       </c>
       <c r="P39">
         <v>45</v>
       </c>
       <c r="Q39">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R39">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S39">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T39">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U39">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V39">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -3469,7 +3464,7 @@
         <v>39</v>
       </c>
       <c r="F40">
-        <v>79</v>
+        <v>241</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -3498,38 +3493,38 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>stimuli/img_ra2nm.png</t>
+          <t>stimuli/img_pdzf1.png</t>
         </is>
       </c>
       <c r="M40">
-        <v>70.75</v>
+        <v>86.23913043478261</v>
       </c>
       <c r="N40">
-        <v>50.375</v>
+        <v>67.17391304347827</v>
       </c>
       <c r="O40">
-        <v>60.5625</v>
+        <v>76.70652173913044</v>
       </c>
       <c r="P40">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="Q40">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R40">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S40">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T40">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="U40">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="V40">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -3551,7 +3546,7 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -3563,50 +3558,55 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>stimuli/img_9bkl9.png</t>
+          <t>stimuli/img_x4bln.png</t>
         </is>
       </c>
       <c r="M41">
-        <v>46.62162162162162</v>
+        <v>76.34042553191489</v>
       </c>
       <c r="N41">
-        <v>34.27027027027027</v>
+        <v>59.51063829787234</v>
       </c>
       <c r="O41">
-        <v>40.44594594594595</v>
+        <v>67.92553191489361</v>
       </c>
       <c r="P41">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="Q41">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R41">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S41">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T41">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U41">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V41">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
@@ -3628,7 +3628,7 @@
         <v>41</v>
       </c>
       <c r="F42">
-        <v>81</v>
+        <v>243</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -3657,38 +3657,38 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>stimuli/img_pdzf1.png</t>
+          <t>stimuli/img_hmmra.png</t>
         </is>
       </c>
       <c r="M42">
-        <v>86.23913043478261</v>
+        <v>54.65853658536585</v>
       </c>
       <c r="N42">
-        <v>67.17391304347827</v>
+        <v>34.24390243902439</v>
       </c>
       <c r="O42">
-        <v>76.70652173913044</v>
+        <v>44.45121951219512</v>
       </c>
       <c r="P42">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Q42">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="R42">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S42">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="T42">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="U42">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="V42">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
